--- a/gropin/schema/metadataschema469.xlsx
+++ b/gropin/schema/metadataschema469.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Listeria monocytogenes in/on Food products (gropin ID: 469 )</t>
+          <t>Gropin secondary growth model for Listeria monocytogenes in/on Food products (gropin ID: 469 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(-1.72172,44.955044955045,length.out=21)</t>
+          <t>seq(-1.72172,44.955044955045,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.39439,9.39060939060939,length.out=21)</t>
+          <t>seq(4.39439,9.39060939060939,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.935935,0.998001998001998,length.out=21)</t>
+          <t>seq(0.935935,0.998001998001998,length.out=10)</t>
         </is>
       </c>
     </row>
